--- a/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Probability_v01.000.0000_MAJOR_RELEASE.xlsx
+++ b/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Probability_v01.000.0000_MAJOR_RELEASE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\Obsidian\Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1\Probabilistic Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D482B117-5012-4983-91D2-B8B4D0C33B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D578E0FF-3C96-4D9B-A443-6B2CA14893BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
     <t>Nota Bene 4: 100% is the core value you must calculate from. In addition to this, you need to assign a mean or closest lesser sample, and a mean or closest greater sample to each projection datapoint, in order to deal with duplicate values properly. As you can see, the synthesis of the duplicate data requires the application of a sample parameter duplication granularity range. On top of this, you must apply a total of 11 complex concave and convex sigmoid methods in order to generate smooth s-curve confidence percentages for projection datapoints which are not contained within the sample dataset. You must naturalise these sigmoid confidence percentages. Make sure to also include depression softening within the raw confidence method, which relies on the realtionship between depression range and dataset range, given a polarised boundary minima and maxima confidence. Additionally, you need to split polarise these convex and concave spot confidence methods, so that they form curves across density depression ranges where there are no sample parameters present. Penultimately, multiply by a parameter count doubling factor, in order to normalise onto a 100% scale. Finally, you must make sure that you give all out-of-dataset range projections a confidence of 0%.</t>
   </si>
   <si>
-    <t>Nota Bene 5: Please remember to sufficiently search the dataset range distribution space. Your set of scenario projection datapoints should start at the range minima, finish at the range maxima, and have no more than a 10% dataset range gap between any two members, and ideally a lot less. If you do not sufficiently search the probability space, then the resulting confidence percentages will be sub-optimal. Also, beware, if you are experiencing an exploding sigmoid curve as your dataset becomes highly polarised, this algorithm is not suitable for your dataset. The best approach in this case, would be to use a pool-sized binary probability algorithm.</t>
+    <t>Nota Bene 5: Please remember to sufficiently search the dataset range distribution space. Your set of scenario projection datapoints should start at the range minima, finish at the range maxima, and have no more than a 10% dataset range gap between any two members, and ideally a lot less. If you do not sufficiently search the probability space, then the resulting confidence percentages will be sub-optimal. Also, beware, if you are experiencing an exploding sigmoid curve as your dataset becomes highly polarised, then this algorithm is not suitable for your dataset. The best approach in this case, would be to use a pool-sized binary probability algorithm. The trick to ascertaining whether you have an exploding gradient is as follows. If any 2 ordered parameters have a gap between them which is at least 80% of the dataset range, then I would suppose it is likely that your model is at least starting to experience an exploding gradient issue.</t>
   </si>
 </sst>
 </file>
@@ -1039,13 +1039,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,22 +1087,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2923,7 +2923,7 @@
   <dimension ref="A1:CZ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,19 +2976,19 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="99"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="6"/>
@@ -4761,111 +4761,111 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="91"/>
-      <c r="AN33" s="91"/>
-      <c r="AO33" s="91"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="91"/>
-      <c r="AR33" s="91"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="91"/>
-      <c r="BA33" s="91"/>
-      <c r="BB33" s="91"/>
-      <c r="BC33" s="91"/>
-      <c r="BD33" s="91"/>
-      <c r="BE33" s="91"/>
-      <c r="BF33" s="91"/>
-      <c r="BG33" s="91"/>
-      <c r="BH33" s="91"/>
-      <c r="BI33" s="91"/>
-      <c r="BJ33" s="91"/>
-      <c r="BK33" s="91"/>
-      <c r="BL33" s="91"/>
-      <c r="BM33" s="91"/>
-      <c r="BN33" s="91"/>
-      <c r="BO33" s="91"/>
-      <c r="BP33" s="91"/>
-      <c r="BQ33" s="91"/>
-      <c r="BR33" s="91"/>
-      <c r="BS33" s="91"/>
-      <c r="BT33" s="91"/>
-      <c r="BU33" s="91"/>
-      <c r="BV33" s="91"/>
-      <c r="BW33" s="91"/>
-      <c r="BX33" s="91"/>
-      <c r="BY33" s="91"/>
-      <c r="BZ33" s="91"/>
-      <c r="CA33" s="91"/>
-      <c r="CB33" s="91"/>
-      <c r="CC33" s="91"/>
-      <c r="CD33" s="91"/>
-      <c r="CE33" s="91"/>
-      <c r="CF33" s="91"/>
-      <c r="CG33" s="91"/>
-      <c r="CH33" s="91"/>
-      <c r="CI33" s="91"/>
-      <c r="CJ33" s="91"/>
-      <c r="CK33" s="91"/>
-      <c r="CL33" s="91"/>
-      <c r="CM33" s="91"/>
-      <c r="CN33" s="91"/>
-      <c r="CO33" s="91"/>
-      <c r="CP33" s="91"/>
-      <c r="CQ33" s="91"/>
-      <c r="CR33" s="91"/>
-      <c r="CS33" s="91"/>
-      <c r="CT33" s="91"/>
-      <c r="CU33" s="91"/>
-      <c r="CV33" s="91"/>
-      <c r="CW33" s="91"/>
-      <c r="CX33" s="91"/>
-      <c r="CY33" s="91"/>
-      <c r="CZ33" s="92"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+      <c r="BN33" s="94"/>
+      <c r="BO33" s="94"/>
+      <c r="BP33" s="94"/>
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="94"/>
+      <c r="BS33" s="94"/>
+      <c r="BT33" s="94"/>
+      <c r="BU33" s="94"/>
+      <c r="BV33" s="94"/>
+      <c r="BW33" s="94"/>
+      <c r="BX33" s="94"/>
+      <c r="BY33" s="94"/>
+      <c r="BZ33" s="94"/>
+      <c r="CA33" s="94"/>
+      <c r="CB33" s="94"/>
+      <c r="CC33" s="94"/>
+      <c r="CD33" s="94"/>
+      <c r="CE33" s="94"/>
+      <c r="CF33" s="94"/>
+      <c r="CG33" s="94"/>
+      <c r="CH33" s="94"/>
+      <c r="CI33" s="94"/>
+      <c r="CJ33" s="94"/>
+      <c r="CK33" s="94"/>
+      <c r="CL33" s="94"/>
+      <c r="CM33" s="94"/>
+      <c r="CN33" s="94"/>
+      <c r="CO33" s="94"/>
+      <c r="CP33" s="94"/>
+      <c r="CQ33" s="94"/>
+      <c r="CR33" s="94"/>
+      <c r="CS33" s="94"/>
+      <c r="CT33" s="94"/>
+      <c r="CU33" s="94"/>
+      <c r="CV33" s="94"/>
+      <c r="CW33" s="94"/>
+      <c r="CX33" s="94"/>
+      <c r="CY33" s="94"/>
+      <c r="CZ33" s="95"/>
     </row>
     <row r="34" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44" t="s">
@@ -11899,44 +11899,44 @@
     </row>
     <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="89"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="92"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="86"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="101"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="102"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="81" t="s">
@@ -12039,24 +12039,24 @@
       <c r="P76" s="83"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="101"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="101"/>
-      <c r="K77" s="101"/>
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="101"/>
-      <c r="O77" s="101"/>
-      <c r="P77" s="102"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="89"/>
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="81" t="s">
@@ -12119,43 +12119,43 @@
       <c r="P80" s="83"/>
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="97" t="s">
+      <c r="A81" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="98"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="98"/>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="98"/>
-      <c r="N81" s="98"/>
-      <c r="O81" s="98"/>
-      <c r="P81" s="99"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="B33:CZ33"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A80:P80"/>
     <mergeCell ref="A81:P81"/>
     <mergeCell ref="A79:P79"/>
     <mergeCell ref="A78:P78"/>
     <mergeCell ref="A76:P76"/>
     <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="B33:CZ33"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A71:P71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
